--- a/nGoals.xlsx
+++ b/nGoals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2460" windowHeight="2550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GridMaps(Temp)" sheetId="6" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="17">
   <si>
     <t>ost001</t>
   </si>
@@ -152,11 +152,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +168,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,10 +203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -203,8 +215,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -307,7 +322,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$3:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.88459</c:v>
@@ -410,7 +425,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$11:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.92296</c:v>
@@ -513,7 +528,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$19:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.8833500000000001</c:v>
@@ -616,7 +631,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$27:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.4674798999999998</c:v>
@@ -686,7 +701,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$35:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.893899</c:v>
@@ -794,7 +809,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -832,7 +847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -917,11 +932,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -951,7 +966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -995,7 +1010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1025,7 +1040,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1123,7 +1138,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$3:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.88459</c:v>
@@ -1226,7 +1241,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$11:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.92296</c:v>
@@ -1329,7 +1344,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$27:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.4674798999999998</c:v>
@@ -1399,7 +1414,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$C$35:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.893899</c:v>
@@ -1507,7 +1522,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1545,7 +1560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -1630,11 +1645,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1664,7 +1679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -1709,7 +1724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1739,7 +1754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1837,7 +1852,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1899.94</c:v>
@@ -1940,7 +1955,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$E$11:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1899.94</c:v>
@@ -2043,7 +2058,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$E$27:$E$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5586.35</c:v>
@@ -2113,7 +2128,7 @@
             <c:numRef>
               <c:f>'Grid Maps'!$E$35:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1899.94</c:v>
@@ -2221,7 +2236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2259,7 +2274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -2344,11 +2359,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2378,7 +2393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -2423,7 +2438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2453,7 +2468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2968,7 +2983,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3006,7 +3021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -3091,7 +3106,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3125,7 +3140,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -3169,7 +3184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3199,7 +3214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3611,7 +3626,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3649,7 +3664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -3734,7 +3749,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3768,7 +3783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -3813,7 +3828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3843,7 +3858,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4255,7 +4270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4293,7 +4308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -4378,7 +4393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4412,7 +4427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -4457,7 +4472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4487,7 +4502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4572,7 +4587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4846,7 +4861,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4884,7 +4899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="513735456"/>
@@ -4977,7 +4992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5011,7 +5026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="513733816"/>
@@ -5056,7 +5071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5086,7 +5101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5176,7 +5191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5446,7 +5461,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5484,7 +5499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -5569,7 +5584,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5603,7 +5618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -5648,7 +5663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5678,7 +5693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5760,7 +5775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6030,7 +6045,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6068,7 +6083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546888"/>
@@ -6153,7 +6168,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6187,7 +6202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="715546560"/>
@@ -6232,7 +6247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6262,7 +6277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11166,16 +11181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11198,16 +11213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11230,16 +11245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11748,9 +11763,9 @@
       <selection activeCell="A18" sqref="A18:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11773,7 +11788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11796,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11819,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -11842,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -11865,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -11888,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -11957,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12003,7 +12018,7 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12026,7 +12041,7 @@
         <v>397.61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12049,7 +12064,7 @@
         <v>960.12990000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12072,7 +12087,7 @@
         <v>1878.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12095,7 +12110,7 @@
         <v>3488.0198999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12118,7 +12133,7 @@
         <v>6053.1099000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12141,7 +12156,7 @@
         <v>10392.0699</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -12164,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -12187,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -12210,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -12233,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -12256,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -12279,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -12302,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -12325,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -12348,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -12371,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -12394,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -12417,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -12440,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -12463,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -12486,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -12509,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -12532,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -12555,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -12578,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -12601,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -12624,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -12647,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -12670,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -12700,29 +12715,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L71" sqref="K71:L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12745,924 +12760,1617 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>1.88459</v>
       </c>
       <c r="D3">
         <v>107.7199</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>1899.94</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>13987.25</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>3.01</v>
       </c>
       <c r="D4">
         <v>105.36499000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>2940.96</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>21682</v>
       </c>
       <c r="G4">
         <v>116.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>3.9717099999999999</v>
       </c>
       <c r="D5">
         <v>104.1875</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>3850.8499000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>28412.779900000001</v>
       </c>
       <c r="G5">
         <v>397.61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>5.3856498999999998</v>
       </c>
       <c r="D6">
         <v>101.58437499</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>4968.2299000000003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>36650.319900000002</v>
       </c>
       <c r="G6">
         <v>960.12990000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>6.99</v>
       </c>
       <c r="D7">
         <v>101.80781249899999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>5892.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>43489.0599</v>
       </c>
       <c r="G7">
         <v>1878.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>9.1326499000000005</v>
       </c>
       <c r="D8">
         <v>102.06515625</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>6720.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>49661.58</v>
       </c>
       <c r="G8">
         <v>3488.0198999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>64</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>12.527760000000001</v>
       </c>
       <c r="D9">
         <v>102.53148437500001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>7335.92</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>54238.8799</v>
       </c>
       <c r="G9">
         <v>6053.1099000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
         <v>128</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>20.470839900000001</v>
       </c>
       <c r="D10">
         <v>101.87429687498999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>7811.14</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>57739.360000000001</v>
       </c>
       <c r="G10">
         <v>10392.0699</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>1.92296</v>
       </c>
       <c r="D11">
         <v>107.7199</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>1899.94</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>13987.25</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>3.91499</v>
       </c>
       <c r="D12">
         <v>105.36499000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>3966.5990000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>29286.369900000002</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>5.655799</v>
       </c>
       <c r="D13">
         <v>104.1875</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>5862.3199000000004</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>43290.68</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>7.1484399999999999</v>
       </c>
       <c r="D14">
         <v>101.58437499</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>7537.3990000000003</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>55651.83</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>8.8458498999999993</v>
       </c>
       <c r="D15">
         <v>101.80781249899999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>8796.0799000000006</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>64805.04</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <v>32</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>10.855839899999999</v>
       </c>
       <c r="D16">
         <v>102.06515625</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>9589.75</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>70518.570000000007</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>17.109639999999999</v>
       </c>
       <c r="D17">
         <v>102.53148437500001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>10056.780000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>73841.33</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
         <v>128</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>26.844339999999999</v>
       </c>
       <c r="D18">
         <v>101.87429687498999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>10275.159900000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>75340.990000000005</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>1.8833500000000001</v>
       </c>
       <c r="D19">
         <v>107.7199</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>1899.94</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>13987.25</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>3.6277898999999998</v>
       </c>
       <c r="D20">
         <v>105.36499000000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>3713.32</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>27388.639899999998</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>6.8649798999999998</v>
       </c>
       <c r="D21">
         <v>104.1875</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>7100.39</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>52375.0599</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>13.432180000000001</v>
       </c>
       <c r="D22">
         <v>101.58437499</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>13707.4599</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>101103</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>27.013429899999998</v>
       </c>
       <c r="D23">
         <v>101.80781249899999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>27467.49</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>202715.22</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>53.988329999999998</v>
       </c>
       <c r="D24">
         <v>102.06515625</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>55172.51</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>407221.33</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25">
         <v>64</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>108.91101</v>
       </c>
       <c r="D25">
         <v>102.53148437500001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>111496.72</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>823018.29</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26">
         <v>128</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>214.9278199</v>
       </c>
       <c r="D26">
         <v>101.87429687498999</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>218622.10990000001</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>1613628.4099000001</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>3.4674798999999998</v>
       </c>
       <c r="D27">
         <v>107.7199</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>5586.35</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>41122.029900000001</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>4.4706099999999998</v>
       </c>
       <c r="D28">
         <v>105.36499000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>7286.7898999999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>53583.419900000001</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>5.2321499999999999</v>
       </c>
       <c r="D29">
         <v>104.1875</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>8550.7990000000009</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>62825.93</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>5.7481198999999998</v>
       </c>
       <c r="D30">
         <v>101.58437499</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>9332.1399000000001</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="8">
         <v>68505.02</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>5.99</v>
       </c>
       <c r="D31">
         <v>101.80781249899999</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="8">
         <v>9844.8299000000006</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="8">
         <v>72195.698999999993</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>6.2363198999999998</v>
       </c>
       <c r="D32">
         <v>102.06515625</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>10186.34</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>74618.149900000004</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33">
         <v>64</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>6.56881</v>
       </c>
       <c r="D33">
         <v>102.53148437500001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>10386.200000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>75998.22</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34">
         <v>128</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>6.7142799000000002</v>
       </c>
       <c r="D34">
         <v>101.87429687498999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="8">
         <v>10461.8099</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="8">
         <v>76495.3</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>1.893899</v>
       </c>
       <c r="D35">
         <v>107.7199</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="8">
         <v>1899.94</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="8">
         <v>13987.25</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>2.99</v>
       </c>
       <c r="D36">
         <v>105.36499000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>2941.5599000000002</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="8">
         <v>21686.479899999998</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>4.0429899000000002</v>
       </c>
       <c r="D37">
         <v>104.1875</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>3852.4099000000001</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="8">
         <v>28424.098999999998</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>5.53749</v>
       </c>
       <c r="D38">
         <v>101.58437499</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="8">
         <v>4971.38</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="8">
         <v>36672.730000000003</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39">
         <v>16</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>7.2580999999999998</v>
       </c>
       <c r="D39">
         <v>101.80781249899999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>5898.6099000000004</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <v>43530.68</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>10.41389</v>
       </c>
       <c r="D40">
         <v>102.06515625</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>6730.38</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="8">
         <v>49732.419900000001</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41">
         <v>64</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>19.294279899999999</v>
       </c>
       <c r="D41">
         <v>102.53148437500001</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="8">
         <v>7352.77</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="8">
         <v>54357.440000000002</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42">
         <v>128</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>52.693040000000003</v>
       </c>
       <c r="D42">
         <v>101.87429687498999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="8">
         <v>7838.85</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="8">
         <v>57931.5</v>
       </c>
       <c r="G42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1.88459</v>
+      </c>
+      <c r="D45">
+        <v>107.7199</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1899.94</v>
+      </c>
+      <c r="F45" s="8">
+        <v>13987.25</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3.01</v>
+      </c>
+      <c r="D46">
+        <v>105.36499000000001</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2940.96</v>
+      </c>
+      <c r="F46" s="8">
+        <v>21682</v>
+      </c>
+      <c r="G46">
+        <v>116.48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3.9717099999999999</v>
+      </c>
+      <c r="D47">
+        <v>104.1875</v>
+      </c>
+      <c r="E47" s="8">
+        <v>3850.8499000000002</v>
+      </c>
+      <c r="F47" s="8">
+        <v>28412.779900000001</v>
+      </c>
+      <c r="G47">
+        <v>397.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="7">
+        <v>5.3856498999999998</v>
+      </c>
+      <c r="D48">
+        <v>101.58437499</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4968.2299000000003</v>
+      </c>
+      <c r="F48" s="8">
+        <v>36650.319900000002</v>
+      </c>
+      <c r="G48">
+        <v>960.12990000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" s="7">
+        <v>6.99</v>
+      </c>
+      <c r="D49">
+        <v>101.80781249899999</v>
+      </c>
+      <c r="E49" s="8">
+        <v>5892.8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>43489.0599</v>
+      </c>
+      <c r="G49">
+        <v>1878.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50" s="7">
+        <v>9.1326499000000005</v>
+      </c>
+      <c r="D50">
+        <v>102.06515625</v>
+      </c>
+      <c r="E50" s="8">
+        <v>6720.5</v>
+      </c>
+      <c r="F50" s="8">
+        <v>49661.58</v>
+      </c>
+      <c r="G50">
+        <v>3488.0198999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7">
+        <v>12.527760000000001</v>
+      </c>
+      <c r="D51">
+        <v>102.53148437500001</v>
+      </c>
+      <c r="E51" s="8">
+        <v>7335.92</v>
+      </c>
+      <c r="F51" s="8">
+        <v>54238.8799</v>
+      </c>
+      <c r="G51">
+        <v>6053.1099000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>128</v>
+      </c>
+      <c r="C52" s="7">
+        <v>20.470839900000001</v>
+      </c>
+      <c r="D52">
+        <v>101.87429687498999</v>
+      </c>
+      <c r="E52" s="8">
+        <v>7811.14</v>
+      </c>
+      <c r="F52" s="8">
+        <v>57739.360000000001</v>
+      </c>
+      <c r="G52">
+        <v>10392.0699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1.92296</v>
+      </c>
+      <c r="D54">
+        <v>107.7199</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1899.94</v>
+      </c>
+      <c r="F54" s="8">
+        <v>13987.25</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1.893899</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1899.94</v>
+      </c>
+      <c r="M54" s="8">
+        <v>13987.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7">
+        <v>3.91499</v>
+      </c>
+      <c r="D55">
+        <v>105.36499000000001</v>
+      </c>
+      <c r="E55" s="8">
+        <v>3966.5990000000002</v>
+      </c>
+      <c r="F55" s="8">
+        <v>29286.369900000002</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="L55" s="8">
+        <v>2941.5599000000002</v>
+      </c>
+      <c r="M55" s="8">
+        <v>21686.479899999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7">
+        <v>5.655799</v>
+      </c>
+      <c r="D56">
+        <v>104.1875</v>
+      </c>
+      <c r="E56" s="8">
+        <v>5862.3199000000004</v>
+      </c>
+      <c r="F56" s="8">
+        <v>43290.68</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4.0429899000000002</v>
+      </c>
+      <c r="L56" s="8">
+        <v>3852.4099000000001</v>
+      </c>
+      <c r="M56" s="8">
+        <v>28424.098999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="7">
+        <v>7.1484399999999999</v>
+      </c>
+      <c r="D57">
+        <v>101.58437499</v>
+      </c>
+      <c r="E57" s="8">
+        <v>7537.3990000000003</v>
+      </c>
+      <c r="F57" s="8">
+        <v>55651.83</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57" s="7">
+        <v>5.53749</v>
+      </c>
+      <c r="L57" s="8">
+        <v>4971.38</v>
+      </c>
+      <c r="M57" s="8">
+        <v>36672.730000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" s="7">
+        <v>8.8458498999999993</v>
+      </c>
+      <c r="D58">
+        <v>101.80781249899999</v>
+      </c>
+      <c r="E58" s="8">
+        <v>8796.0799000000006</v>
+      </c>
+      <c r="F58" s="8">
+        <v>64805.04</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58" s="7">
+        <v>7.2580999999999998</v>
+      </c>
+      <c r="L58" s="8">
+        <v>5898.6099000000004</v>
+      </c>
+      <c r="M58" s="8">
+        <v>43530.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59" s="7">
+        <v>10.855839899999999</v>
+      </c>
+      <c r="D59">
+        <v>102.06515625</v>
+      </c>
+      <c r="E59" s="8">
+        <v>9589.75</v>
+      </c>
+      <c r="F59" s="8">
+        <v>70518.570000000007</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59">
+        <v>32</v>
+      </c>
+      <c r="K59" s="7">
+        <v>10.41389</v>
+      </c>
+      <c r="L59" s="8">
+        <v>6730.38</v>
+      </c>
+      <c r="M59" s="8">
+        <v>49732.419900000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>64</v>
+      </c>
+      <c r="C60" s="7">
+        <v>17.109639999999999</v>
+      </c>
+      <c r="D60">
+        <v>102.53148437500001</v>
+      </c>
+      <c r="E60" s="8">
+        <v>10056.780000000001</v>
+      </c>
+      <c r="F60" s="8">
+        <v>73841.33</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <v>64</v>
+      </c>
+      <c r="K60" s="7">
+        <v>19.294279899999999</v>
+      </c>
+      <c r="L60" s="8">
+        <v>7352.77</v>
+      </c>
+      <c r="M60" s="8">
+        <v>54357.440000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>128</v>
+      </c>
+      <c r="C61" s="7">
+        <v>26.844339999999999</v>
+      </c>
+      <c r="D61">
+        <v>101.87429687498999</v>
+      </c>
+      <c r="E61" s="8">
+        <v>10275.159900000001</v>
+      </c>
+      <c r="F61" s="8">
+        <v>75340.990000000005</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>128</v>
+      </c>
+      <c r="K61" s="7">
+        <v>52.693040000000003</v>
+      </c>
+      <c r="L61" s="8">
+        <v>7838.85</v>
+      </c>
+      <c r="M61" s="8">
+        <v>57931.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1.92296</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1899.94</v>
+      </c>
+      <c r="M65" s="8">
+        <v>13987.25</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>3.91499</v>
+      </c>
+      <c r="L66" s="8">
+        <v>3966.5990000000002</v>
+      </c>
+      <c r="M66" s="8">
+        <v>29286.369900000002</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67" s="7">
+        <v>5.655799</v>
+      </c>
+      <c r="L67" s="8">
+        <v>5862.3199000000004</v>
+      </c>
+      <c r="M67" s="8">
+        <v>43290.68</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68" s="7">
+        <v>7.1484399999999999</v>
+      </c>
+      <c r="L68" s="8">
+        <v>7537.3990000000003</v>
+      </c>
+      <c r="M68" s="8">
+        <v>55651.83</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <v>16</v>
+      </c>
+      <c r="K69" s="7">
+        <v>8.8458498999999993</v>
+      </c>
+      <c r="L69" s="8">
+        <v>8796.0799000000006</v>
+      </c>
+      <c r="M69" s="8">
+        <v>64805.04</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <v>32</v>
+      </c>
+      <c r="K70" s="7">
+        <v>10.855839899999999</v>
+      </c>
+      <c r="L70" s="8">
+        <v>9589.75</v>
+      </c>
+      <c r="M70" s="8">
+        <v>70518.570000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <v>64</v>
+      </c>
+      <c r="K71" s="7">
+        <v>17.109639999999999</v>
+      </c>
+      <c r="L71" s="8">
+        <v>10056.780000000001</v>
+      </c>
+      <c r="M71" s="8">
+        <v>73841.33</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <v>128</v>
+      </c>
+      <c r="K72" s="7">
+        <v>26.844339999999999</v>
+      </c>
+      <c r="L72" s="8">
+        <v>10275.159900000001</v>
+      </c>
+      <c r="M72" s="8">
+        <v>75340.990000000005</v>
       </c>
     </row>
   </sheetData>
@@ -13680,23 +14388,23 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -13719,7 +14427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -13742,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -13765,7 +14473,7 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -13788,7 +14496,7 @@
         <v>397.61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -13811,7 +14519,7 @@
         <v>960.13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -13834,7 +14542,7 @@
         <v>1878.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13857,7 +14565,7 @@
         <v>3488.02</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -13880,7 +14588,7 @@
         <v>6053.11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -13903,7 +14611,7 @@
         <v>10392.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -13926,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -13949,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -13972,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -13995,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -14018,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -14041,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -14064,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -14087,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -14110,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -14133,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -14156,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -14179,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -14202,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -14225,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -14248,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -14271,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -14294,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -14317,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -14340,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -14363,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -14386,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -14409,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -14432,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -14470,19 +15178,19 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -14508,7 +15216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -14535,7 +15243,7 @@
         <v>993.85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -14562,7 +15270,7 @@
         <v>2286.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -14589,7 +15297,7 @@
         <v>8617.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -14616,7 +15324,7 @@
         <v>21059.200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -14643,7 +15351,7 @@
         <v>74744.899999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -14670,7 +15378,7 @@
         <v>188946</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -14697,7 +15405,7 @@
         <v>787481</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -14724,7 +15432,7 @@
         <v>1973420</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -14750,7 +15458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14776,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -14802,7 +15510,7 @@
         <v>44.95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -14828,7 +15536,7 @@
         <v>185.58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -14854,7 +15562,7 @@
         <v>473.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -14880,7 +15588,7 @@
         <v>1106.17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -14906,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -14932,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -14958,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -14984,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -15010,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -15036,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -15062,7 +15770,7 @@
         <v>3191.37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -15088,7 +15796,7 @@
         <v>8146.35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -15114,7 +15822,7 @@
         <v>23278.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -15140,7 +15848,7 @@
         <v>56632.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -15166,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20</v>
       </c>
@@ -15192,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20</v>
       </c>
@@ -15218,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -15244,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20</v>
       </c>

--- a/nGoals.xlsx
+++ b/nGoals.xlsx
@@ -4,21 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2460" windowHeight="2550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="2550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GridMaps(Temp)" sheetId="6" r:id="rId1"/>
-    <sheet name="Grid Maps" sheetId="3" r:id="rId2"/>
-    <sheet name="Grid Maps (Old)" sheetId="5" r:id="rId3"/>
-    <sheet name="Pancake" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Grid Maps" sheetId="3" r:id="rId3"/>
+    <sheet name="Grid Maps (Old)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId6"/>
+    <sheet name="Pancake" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="out." localSheetId="3">Pancake!$A$1:$H$9</definedName>
-    <definedName name="out._1" localSheetId="1">'Grid Maps'!$A$2:$G$34</definedName>
-    <definedName name="out._1" localSheetId="2">'Grid Maps (Old)'!$A$2:$G$34</definedName>
-    <definedName name="out1._1" localSheetId="3">Pancake!$A$11:$H$31</definedName>
+    <definedName name="out." localSheetId="6">Pancake!$A$1:$H$9</definedName>
+    <definedName name="out._1" localSheetId="2">'Grid Maps'!$A$2:$G$34</definedName>
+    <definedName name="out._1" localSheetId="3">'Grid Maps (Old)'!$A$2:$G$34</definedName>
+    <definedName name="out1._1" localSheetId="6">Pancake!$A$11:$H$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="34">
   <si>
     <t>ost001</t>
   </si>
@@ -147,14 +155,68 @@
   <si>
     <t>min.lazy_update</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of Time (ms.)</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>A* per Goal</t>
+  </si>
+  <si>
+    <t>kA*</t>
+  </si>
+  <si>
+    <t>Lazy ka*</t>
+  </si>
+  <si>
+    <t>Min-f</t>
+  </si>
+  <si>
+    <t>Max-f</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Average of Generated</t>
+  </si>
+  <si>
+    <t>\kastar{}</t>
+  </si>
+  <si>
+    <t>Lazy \kastar{}</t>
+  </si>
+  <si>
+    <t>Average of Denied</t>
+  </si>
+  <si>
+    <t># Pancakes</t>
+  </si>
+  <si>
+    <t>\kastar{}-\fmax{}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +255,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,12 +270,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -217,12 +294,307 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="93">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -973,6 +1345,1709 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max vs. Uniform</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ixed #goals = 2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Pancake!$A$2,Pancake!$A$4,Pancake!$A$6,Pancake!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Pancake!$G$2,Pancake!$G$4,Pancake!$G$6,Pancake!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>198.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1436.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10677.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98435.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEF0-4BF0-8081-20E2FA0B46B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Uniform</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Pancake!$A$2,Pancake!$A$4,Pancake!$A$6,Pancake!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Pancake!$G$3,Pancake!$G$5,Pancake!$G$7,Pancake!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>457.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3509.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26992.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEF0-4BF0-8081-20E2FA0B46B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="513733816"/>
+        <c:axId val="513735456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="513733816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of pancakes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513735456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513735456"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="450000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expanded nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0456852791878174E-2"/>
+              <c:y val="0.19878095238095239"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513733816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Min</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. PerGoal (f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ixed #pancakes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> = 10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grid Maps'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pancake!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.7120000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50541999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1770400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.23908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E3F-4F96-8622-7355AEDAD4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Per Goal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grid Maps'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pancake!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16145000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E3F-4F96-8622-7355AEDAD4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="715546560"/>
+        <c:axId val="715546888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="715546560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of goals.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715546888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715546888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715546560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Min vs. PerGoal (fixed #pancakes = 20)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grid Maps'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pancake!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2441700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7460299999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.742999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.634399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.03200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F02-4181-9403-3D53915CC8AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Per Goal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Grid Maps'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pancake!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1694000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8148299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.1389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.5107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F02-4181-9403-3D53915CC8AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="715546560"/>
+        <c:axId val="715546888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="715546560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of goals.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715546888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715546888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expanded nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715546560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4639,7 +6714,7 @@
             <c:numRef>
               <c:f>(Pancake!$G$2,Pancake!$G$4,Pancake!$G$6,Pancake!$G$8)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>198.77</c:v>
@@ -4703,7 +6778,7 @@
             <c:numRef>
               <c:f>(Pancake!$G$3,Pancake!$G$5,Pancake!$G$7,Pancake!$G$9)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>457.38</c:v>
@@ -4996,7 +7071,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5268,7 +7343,7 @@
             <c:numRef>
               <c:f>Pancake!$F$12:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21.07</c:v>
@@ -5362,7 +7437,7 @@
             <c:numRef>
               <c:f>Pancake!$F$17:$F$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21.07</c:v>
@@ -5588,7 +7663,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5852,7 +7927,7 @@
             <c:numRef>
               <c:f>Pancake!$F$22:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>385.48</c:v>
@@ -5946,7 +8021,7 @@
             <c:numRef>
               <c:f>Pancake!$F$27:$F$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>385.48</c:v>
@@ -5960,7 +8035,7 @@
                 <c:pt idx="3">
                   <c:v>2831.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>5571.76</c:v>
                 </c:pt>
               </c:numCache>
@@ -6172,7 +8247,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6289,6 +8364,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7151,6 +9346,1517 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -11413,16 +15119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11445,16 +15151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11475,7 +15181,1449 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42742.964558564818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="40">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:G42" sheet="Grid Maps"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="H" numFmtId="0">
+      <sharedItems count="5">
+        <s v="min.lazy_update"/>
+        <s v="max"/>
+        <s v="pergoal"/>
+        <s v="uniform"/>
+        <s v="min.total_update"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="#Goals" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="128" count="8">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+        <n v="32"/>
+        <n v="64"/>
+        <n v="128"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time (ms.)" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8833500000000001" maxValue="214.9278199"/>
+    </cacheField>
+    <cacheField name="Cost" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="101.58437499" maxValue="107.7199"/>
+    </cacheField>
+    <cacheField name="Expanded" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1899.94" maxValue="218622.10990000001"/>
+    </cacheField>
+    <cacheField name="Generated" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13987.25" maxValue="1613628.4099000001"/>
+    </cacheField>
+    <cacheField name="Denied" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="10392.0699"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42742.998425810183" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H9" sheet="Pancake"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="#Pancakes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="9" count="4">
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="n!" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="720" maxValue="362880"/>
+    </cacheField>
+    <cacheField name="H" numFmtId="0">
+      <sharedItems count="2">
+        <s v="max"/>
+        <s v="uniform"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="#Goals" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="1">
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time (ms.)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34248000000000001" maxValue="717.64099999999996"/>
+    </cacheField>
+    <cacheField name="Cost" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4249999999999998" maxValue="7.6449999999999996"/>
+    </cacheField>
+    <cacheField name="Expanded" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="198.77" maxValue="246677"/>
+    </cacheField>
+    <cacheField name="Generated" numFmtId="168">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="993.85" maxValue="1973420"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42743.004309722222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A11:H31" sheet="Pancake"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="#Pancakes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="20" count="2">
+        <n v="10"/>
+        <n v="20"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="H" numFmtId="0">
+      <sharedItems count="2">
+        <s v="min"/>
+        <s v="pergoal"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="#Goals" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time (ms.)" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.3000000000000004E-2" maxValue="206.03200000000001"/>
+    </cacheField>
+    <cacheField name="Cost" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.6893799999999999" maxValue="18.864999999999998"/>
+    </cacheField>
+    <cacheField name="Expanded" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="21.07" maxValue="5571.76"/>
+    </cacheField>
+    <cacheField name="Generated" numFmtId="168">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="189.63" maxValue="105863"/>
+    </cacheField>
+    <cacheField name="Denied" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="56632.2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.88459"/>
+    <n v="107.7199"/>
+    <n v="1899.94"/>
+    <n v="13987.25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.01"/>
+    <n v="105.36499000000001"/>
+    <n v="2940.96"/>
+    <n v="21682"/>
+    <n v="116.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.9717099999999999"/>
+    <n v="104.1875"/>
+    <n v="3850.8499000000002"/>
+    <n v="28412.779900000001"/>
+    <n v="397.61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5.3856498999999998"/>
+    <n v="101.58437499"/>
+    <n v="4968.2299000000003"/>
+    <n v="36650.319900000002"/>
+    <n v="960.12990000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="6.99"/>
+    <n v="101.80781249899999"/>
+    <n v="5892.8"/>
+    <n v="43489.0599"/>
+    <n v="1878.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="9.1326499000000005"/>
+    <n v="102.06515625"/>
+    <n v="6720.5"/>
+    <n v="49661.58"/>
+    <n v="3488.0198999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="12.527760000000001"/>
+    <n v="102.53148437500001"/>
+    <n v="7335.92"/>
+    <n v="54238.8799"/>
+    <n v="6053.1099000000004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="20.470839900000001"/>
+    <n v="101.87429687498999"/>
+    <n v="7811.14"/>
+    <n v="57739.360000000001"/>
+    <n v="10392.0699"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.92296"/>
+    <n v="107.7199"/>
+    <n v="1899.94"/>
+    <n v="13987.25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3.91499"/>
+    <n v="105.36499000000001"/>
+    <n v="3966.5990000000002"/>
+    <n v="29286.369900000002"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5.655799"/>
+    <n v="104.1875"/>
+    <n v="5862.3199000000004"/>
+    <n v="43290.68"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7.1484399999999999"/>
+    <n v="101.58437499"/>
+    <n v="7537.3990000000003"/>
+    <n v="55651.83"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8.8458498999999993"/>
+    <n v="101.80781249899999"/>
+    <n v="8796.0799000000006"/>
+    <n v="64805.04"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="10.855839899999999"/>
+    <n v="102.06515625"/>
+    <n v="9589.75"/>
+    <n v="70518.570000000007"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="17.109639999999999"/>
+    <n v="102.53148437500001"/>
+    <n v="10056.780000000001"/>
+    <n v="73841.33"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="26.844339999999999"/>
+    <n v="101.87429687498999"/>
+    <n v="10275.159900000001"/>
+    <n v="75340.990000000005"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.8833500000000001"/>
+    <n v="107.7199"/>
+    <n v="1899.94"/>
+    <n v="13987.25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3.6277898999999998"/>
+    <n v="105.36499000000001"/>
+    <n v="3713.32"/>
+    <n v="27388.639899999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6.8649798999999998"/>
+    <n v="104.1875"/>
+    <n v="7100.39"/>
+    <n v="52375.0599"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="13.432180000000001"/>
+    <n v="101.58437499"/>
+    <n v="13707.4599"/>
+    <n v="101103"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="27.013429899999998"/>
+    <n v="101.80781249899999"/>
+    <n v="27467.49"/>
+    <n v="202715.22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="53.988329999999998"/>
+    <n v="102.06515625"/>
+    <n v="55172.51"/>
+    <n v="407221.33"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="108.91101"/>
+    <n v="102.53148437500001"/>
+    <n v="111496.72"/>
+    <n v="823018.29"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="214.9278199"/>
+    <n v="101.87429687498999"/>
+    <n v="218622.10990000001"/>
+    <n v="1613628.4099000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3.4674798999999998"/>
+    <n v="107.7199"/>
+    <n v="5586.35"/>
+    <n v="41122.029900000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.4706099999999998"/>
+    <n v="105.36499000000001"/>
+    <n v="7286.7898999999998"/>
+    <n v="53583.419900000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="5.2321499999999999"/>
+    <n v="104.1875"/>
+    <n v="8550.7990000000009"/>
+    <n v="62825.93"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5.7481198999999998"/>
+    <n v="101.58437499"/>
+    <n v="9332.1399000000001"/>
+    <n v="68505.02"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="5.99"/>
+    <n v="101.80781249899999"/>
+    <n v="9844.8299000000006"/>
+    <n v="72195.698999999993"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="6.2363198999999998"/>
+    <n v="102.06515625"/>
+    <n v="10186.34"/>
+    <n v="74618.149900000004"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="6.56881"/>
+    <n v="102.53148437500001"/>
+    <n v="10386.200000000001"/>
+    <n v="75998.22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="6.7142799000000002"/>
+    <n v="101.87429687498999"/>
+    <n v="10461.8099"/>
+    <n v="76495.3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1.893899"/>
+    <n v="107.7199"/>
+    <n v="1899.94"/>
+    <n v="13987.25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2.99"/>
+    <n v="105.36499000000001"/>
+    <n v="2941.5599000000002"/>
+    <n v="21686.479899999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="4.0429899000000002"/>
+    <n v="104.1875"/>
+    <n v="3852.4099000000001"/>
+    <n v="28424.098999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="5.53749"/>
+    <n v="101.58437499"/>
+    <n v="4971.38"/>
+    <n v="36672.730000000003"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7.2580999999999998"/>
+    <n v="101.80781249899999"/>
+    <n v="5898.6099000000004"/>
+    <n v="43530.68"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="10.41389"/>
+    <n v="102.06515625"/>
+    <n v="6730.38"/>
+    <n v="49732.419900000001"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="19.294279899999999"/>
+    <n v="102.53148437500001"/>
+    <n v="7352.77"/>
+    <n v="54357.440000000002"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="52.693040000000003"/>
+    <n v="101.87429687498999"/>
+    <n v="7838.85"/>
+    <n v="57931.5"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <n v="720"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.34248000000000001"/>
+    <n v="4.4249999999999998"/>
+    <n v="198.77"/>
+    <n v="993.85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="720"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.46"/>
+    <n v="4.4249999999999998"/>
+    <n v="457.38"/>
+    <n v="2286.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5040"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.5737299999999999"/>
+    <n v="5.67"/>
+    <n v="1436.18"/>
+    <n v="8617.08"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5040"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.0604300000000002"/>
+    <n v="5.67"/>
+    <n v="3509.86"/>
+    <n v="21059.200000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40320"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22.950199999999999"/>
+    <n v="6.68"/>
+    <n v="10677.9"/>
+    <n v="74744.899999999994"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40320"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="40.251899999999999"/>
+    <n v="6.68"/>
+    <n v="26992.3"/>
+    <n v="188946"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="362880"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="410.80799999999999"/>
+    <n v="7.6449999999999996"/>
+    <n v="98435.1"/>
+    <n v="787481"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="362880"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="717.64099999999996"/>
+    <n v="7.6449999999999996"/>
+    <n v="246677"/>
+    <n v="1973420"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.7120000000000003E-2"/>
+    <n v="8.92"/>
+    <n v="21.07"/>
+    <n v="189.63"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.20094000000000001"/>
+    <n v="8.7650000000000006"/>
+    <n v="40.340000000000003"/>
+    <n v="363.06"/>
+    <n v="44.95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.50541999999999998"/>
+    <n v="8.7850000000000001"/>
+    <n v="83.9"/>
+    <n v="755.1"/>
+    <n v="185.58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.1770400000000001"/>
+    <n v="8.7375000000000007"/>
+    <n v="151.52000000000001"/>
+    <n v="1363.68"/>
+    <n v="473.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.23908"/>
+    <n v="8.6893799999999999"/>
+    <n v="293.89999999999998"/>
+    <n v="2645.1"/>
+    <n v="1106.17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8.3000000000000004E-2"/>
+    <n v="8.92"/>
+    <n v="21.07"/>
+    <n v="189.63"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.16145000000000001"/>
+    <n v="8.7650000000000006"/>
+    <n v="40.909999999999997"/>
+    <n v="368.19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.34806999999999999"/>
+    <n v="8.7850000000000001"/>
+    <n v="87.53"/>
+    <n v="787.77"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.67479"/>
+    <n v="8.7375000000000007"/>
+    <n v="167.99"/>
+    <n v="1511.91"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1.35222"/>
+    <n v="8.6893799999999999"/>
+    <n v="339.82"/>
+    <n v="3058.38"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2441700000000004"/>
+    <n v="18.84"/>
+    <n v="385.48"/>
+    <n v="7324.12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9.7460299999999993"/>
+    <n v="18.864999999999998"/>
+    <n v="726"/>
+    <n v="13794"/>
+    <n v="3191.37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21.742999999999999"/>
+    <n v="18.809999999999999"/>
+    <n v="1323.88"/>
+    <n v="25153.7"/>
+    <n v="8146.35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="66.634399999999999"/>
+    <n v="18.787500000000001"/>
+    <n v="2803.56"/>
+    <n v="53267.6"/>
+    <n v="23278.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="206.03200000000001"/>
+    <n v="18.766200000000001"/>
+    <n v="5456.54"/>
+    <n v="103674"/>
+    <n v="56632.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1694000000000004"/>
+    <n v="18.84"/>
+    <n v="385.48"/>
+    <n v="7324.12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.8148299999999997"/>
+    <n v="18.864999999999998"/>
+    <n v="727.81"/>
+    <n v="13828.4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="13.7342"/>
+    <n v="18.809999999999999"/>
+    <n v="1314.84"/>
+    <n v="24982"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="30.1389"/>
+    <n v="18.787500000000001"/>
+    <n v="2831.06"/>
+    <n v="53790.1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="59.5107"/>
+    <n v="18.766200000000001"/>
+    <n v="5571.76"/>
+    <n v="105863"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Denied" fld="6" subtotal="average" baseField="1" baseItem="4"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="81">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Time (ms.)" fld="4" subtotal="average" baseField="0" baseItem="1885266960"/>
+    <dataField name="Average of Generated" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Time (ms.)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Generated" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0" defaultSubtotal="1" sumSubtotal="1" countASubtotal="1" avgSubtotal="1" maxSubtotal="1" minSubtotal="1" productSubtotal="1" countSubtotal="1" stdDevSubtotal="1" stdDevPSubtotal="1" varSubtotal="1" varPSubtotal="1"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12715,10 +17863,679 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H40"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>116.48</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>397.61</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>960.12990000000002</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1878.2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>32</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3488.0198999999998</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>64</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6053.1099000000004</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>128</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>10392.0699</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2910.7024499999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1.88459</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1.92296</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.893899</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1.8833500000000001</v>
+      </c>
+      <c r="F22" s="11">
+        <v>3.4674798999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3.91499</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3.6277898999999998</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4.4706099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3.9717099999999999</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5.655799</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4.0429899000000002</v>
+      </c>
+      <c r="E24" s="11">
+        <v>6.8649798999999998</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.2321499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5.3856498999999998</v>
+      </c>
+      <c r="C25" s="11">
+        <v>7.1484399999999999</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5.53749</v>
+      </c>
+      <c r="E25" s="11">
+        <v>13.432180000000001</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5.7481198999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11">
+        <v>6.99</v>
+      </c>
+      <c r="C26" s="11">
+        <v>8.8458498999999993</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7.2580999999999998</v>
+      </c>
+      <c r="E26" s="11">
+        <v>27.013429899999998</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>32</v>
+      </c>
+      <c r="B27" s="11">
+        <v>9.1326499000000005</v>
+      </c>
+      <c r="C27" s="11">
+        <v>10.855839899999999</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10.41389</v>
+      </c>
+      <c r="E27" s="11">
+        <v>53.988329999999998</v>
+      </c>
+      <c r="F27" s="11">
+        <v>6.2363198999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>64</v>
+      </c>
+      <c r="B28" s="11">
+        <v>12.527760000000001</v>
+      </c>
+      <c r="C28" s="11">
+        <v>17.109639999999999</v>
+      </c>
+      <c r="D28" s="11">
+        <v>19.294279899999999</v>
+      </c>
+      <c r="E28" s="11">
+        <v>108.91101</v>
+      </c>
+      <c r="F28" s="11">
+        <v>6.56881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>128</v>
+      </c>
+      <c r="B29" s="11">
+        <v>20.470839900000001</v>
+      </c>
+      <c r="C29" s="11">
+        <v>26.844339999999999</v>
+      </c>
+      <c r="D29" s="11">
+        <v>52.693040000000003</v>
+      </c>
+      <c r="E29" s="11">
+        <v>214.9278199</v>
+      </c>
+      <c r="F29" s="11">
+        <v>6.7142799000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>1</v>
+      </c>
+      <c r="B33" s="18">
+        <v>13987.25</v>
+      </c>
+      <c r="C33" s="18">
+        <v>13987.25</v>
+      </c>
+      <c r="D33" s="18">
+        <v>13987.25</v>
+      </c>
+      <c r="E33" s="18">
+        <v>13987.25</v>
+      </c>
+      <c r="F33" s="18">
+        <v>41122.029900000001</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" ref="H33:H39" si="0">B33-C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>2</v>
+      </c>
+      <c r="B34" s="18">
+        <v>29286.369900000002</v>
+      </c>
+      <c r="C34" s="18">
+        <v>21682</v>
+      </c>
+      <c r="D34" s="18">
+        <v>21686.479899999998</v>
+      </c>
+      <c r="E34" s="18">
+        <v>27388.639899999998</v>
+      </c>
+      <c r="F34" s="18">
+        <v>53583.419900000001</v>
+      </c>
+      <c r="G34" s="18">
+        <v>116.48</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>7604.3699000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18">
+        <v>43290.68</v>
+      </c>
+      <c r="C35" s="18">
+        <v>28412.779900000001</v>
+      </c>
+      <c r="D35" s="18">
+        <v>28424.098999999998</v>
+      </c>
+      <c r="E35" s="18">
+        <v>52375.0599</v>
+      </c>
+      <c r="F35" s="18">
+        <v>62825.93</v>
+      </c>
+      <c r="G35" s="18">
+        <v>397.61</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>14877.900099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>8</v>
+      </c>
+      <c r="B36" s="18">
+        <v>55651.83</v>
+      </c>
+      <c r="C36" s="18">
+        <v>36650.319900000002</v>
+      </c>
+      <c r="D36" s="18">
+        <v>36672.730000000003</v>
+      </c>
+      <c r="E36" s="18">
+        <v>101103</v>
+      </c>
+      <c r="F36" s="18">
+        <v>68505.02</v>
+      </c>
+      <c r="G36" s="18">
+        <v>960.12990000000002</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>19001.5101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>16</v>
+      </c>
+      <c r="B37" s="18">
+        <v>64805.04</v>
+      </c>
+      <c r="C37" s="18">
+        <v>43489.0599</v>
+      </c>
+      <c r="D37" s="18">
+        <v>43530.68</v>
+      </c>
+      <c r="E37" s="18">
+        <v>202715.22</v>
+      </c>
+      <c r="F37" s="18">
+        <v>72195.698999999993</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1878.2</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>21315.980100000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>32</v>
+      </c>
+      <c r="B38" s="18">
+        <v>70518.570000000007</v>
+      </c>
+      <c r="C38" s="18">
+        <v>49661.58</v>
+      </c>
+      <c r="D38" s="18">
+        <v>49732.419900000001</v>
+      </c>
+      <c r="E38" s="18">
+        <v>407221.33</v>
+      </c>
+      <c r="F38" s="18">
+        <v>74618.149900000004</v>
+      </c>
+      <c r="G38" s="18">
+        <v>3488.0198999999998</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>20856.990000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>64</v>
+      </c>
+      <c r="B39" s="18">
+        <v>73841.33</v>
+      </c>
+      <c r="C39" s="18">
+        <v>54238.8799</v>
+      </c>
+      <c r="D39" s="18">
+        <v>54357.440000000002</v>
+      </c>
+      <c r="E39" s="18">
+        <v>823018.29</v>
+      </c>
+      <c r="F39" s="18">
+        <v>75998.22</v>
+      </c>
+      <c r="G39" s="18">
+        <v>6053.1099000000004</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>19602.450100000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>128</v>
+      </c>
+      <c r="B40" s="18">
+        <v>75340.990000000005</v>
+      </c>
+      <c r="C40" s="18">
+        <v>57739.360000000001</v>
+      </c>
+      <c r="D40" s="18">
+        <v>57931.5</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1613628.4099000001</v>
+      </c>
+      <c r="F40" s="18">
+        <v>76495.3</v>
+      </c>
+      <c r="G40" s="18">
+        <v>10392.0699</v>
+      </c>
+      <c r="H40" s="18">
+        <f>B40-C40</f>
+        <v>17601.630000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L71" sqref="K71:L72"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G42" sqref="A2:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14380,7 +20197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -15170,12 +20987,529 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E20"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="A15:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.34248000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="D6" s="18">
+        <v>993.85</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2286.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.5737299999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.0604300000000002</v>
+      </c>
+      <c r="D7" s="18">
+        <v>8617.08</v>
+      </c>
+      <c r="E7" s="18">
+        <v>21059.200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
+        <v>22.950199999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>40.251899999999999</v>
+      </c>
+      <c r="D8" s="18">
+        <v>74744.899999999994</v>
+      </c>
+      <c r="E8" s="18">
+        <v>188946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>410.80799999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>717.64099999999996</v>
+      </c>
+      <c r="D9" s="18">
+        <v>787481</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1973420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>109.16860249999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>190.60333249999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>217959.20749999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>546428.02500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.34248000000000001</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="D17" s="18">
+        <v>993.85</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2286.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.5737299999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>4.0604300000000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>8617.08</v>
+      </c>
+      <c r="E18" s="18">
+        <v>21059.200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
+        <v>22.950199999999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>40.251899999999999</v>
+      </c>
+      <c r="D19" s="18">
+        <v>74744.899999999994</v>
+      </c>
+      <c r="E19" s="18">
+        <v>188946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10">
+        <v>410.80799999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>717.64099999999996</v>
+      </c>
+      <c r="D20" s="18">
+        <v>787481</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1973420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" activeCellId="1" sqref="C5:C18 E5:E18"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" dimension="1" start="3" min="2" max="4" activeRow="4" activeCol="4" previousRow="4" previousCol="4" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.04192</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.52390599999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1063.3139999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1183.1759999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
+        <v>8.7120000000000003E-2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>189.63</v>
+      </c>
+      <c r="E7" s="18">
+        <v>189.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>2</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.20094000000000001</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.16145000000000001</v>
+      </c>
+      <c r="D8" s="18">
+        <v>363.06</v>
+      </c>
+      <c r="E8" s="18">
+        <v>368.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.50541999999999998</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.34806999999999999</v>
+      </c>
+      <c r="D9" s="18">
+        <v>755.1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>787.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.1770400000000001</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.67479</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1363.68</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1511.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3.23908</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1.35222</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2645.1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3058.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17">
+        <v>61.679920000000003</v>
+      </c>
+      <c r="C12" s="17">
+        <v>23.073606000000002</v>
+      </c>
+      <c r="D12" s="18">
+        <v>40642.683999999994</v>
+      </c>
+      <c r="E12" s="18">
+        <v>41157.523999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17">
+        <v>4.2441700000000004</v>
+      </c>
+      <c r="C13" s="17">
+        <v>4.1694000000000004</v>
+      </c>
+      <c r="D13" s="18">
+        <v>7324.12</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7324.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17">
+        <v>9.7460299999999993</v>
+      </c>
+      <c r="C14" s="17">
+        <v>7.8148299999999997</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13794</v>
+      </c>
+      <c r="E14" s="18">
+        <v>13828.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17">
+        <v>21.742999999999999</v>
+      </c>
+      <c r="C15" s="17">
+        <v>13.7342</v>
+      </c>
+      <c r="D15" s="18">
+        <v>25153.7</v>
+      </c>
+      <c r="E15" s="18">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>8</v>
+      </c>
+      <c r="B16" s="17">
+        <v>66.634399999999999</v>
+      </c>
+      <c r="C16" s="17">
+        <v>30.1389</v>
+      </c>
+      <c r="D16" s="18">
+        <v>53267.6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>53790.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>206.03200000000001</v>
+      </c>
+      <c r="C17" s="17">
+        <v>59.5107</v>
+      </c>
+      <c r="D17" s="18">
+        <v>103674</v>
+      </c>
+      <c r="E17" s="18">
+        <v>105863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>31.36092</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11.798756000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20852.999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21170.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="A11" sqref="A11:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15185,7 +21519,8 @@
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
@@ -15236,10 +21571,10 @@
       <c r="F2" s="3">
         <v>4.4249999999999998</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="11">
         <v>198.77</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="12">
         <v>993.85</v>
       </c>
     </row>
@@ -15263,10 +21598,10 @@
       <c r="F3" s="3">
         <v>4.4249999999999998</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="11">
         <v>457.38</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="12">
         <v>2286.9</v>
       </c>
     </row>
@@ -15290,10 +21625,10 @@
       <c r="F4" s="3">
         <v>5.67</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="11">
         <v>1436.18</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="12">
         <v>8617.08</v>
       </c>
     </row>
@@ -15317,10 +21652,10 @@
       <c r="F5" s="3">
         <v>5.67</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="11">
         <v>3509.86</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
         <v>21059.200000000001</v>
       </c>
     </row>
@@ -15344,10 +21679,10 @@
       <c r="F6" s="3">
         <v>6.68</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>10677.9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
         <v>74744.899999999994</v>
       </c>
     </row>
@@ -15371,10 +21706,10 @@
       <c r="F7" s="3">
         <v>6.68</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <v>26992.3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>188946</v>
       </c>
     </row>
@@ -15398,10 +21733,10 @@
       <c r="F8" s="3">
         <v>7.6449999999999996</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="11">
         <v>98435.1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <v>787481</v>
       </c>
     </row>
@@ -15425,10 +21760,10 @@
       <c r="F9" s="3">
         <v>7.6449999999999996</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <v>246677</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="12">
         <v>1973420</v>
       </c>
     </row>
@@ -15468,16 +21803,16 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <v>8.7120000000000003E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>8.92</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="11">
         <v>21.07</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>189.63</v>
       </c>
       <c r="H12">
@@ -15494,16 +21829,16 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>0.20094000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>8.7650000000000006</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <v>40.340000000000003</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>363.06</v>
       </c>
       <c r="H13">
@@ -15520,16 +21855,16 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>0.50541999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>8.7850000000000001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <v>83.9</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>755.1</v>
       </c>
       <c r="H14">
@@ -15546,16 +21881,16 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>1.1770400000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>8.7375000000000007</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>151.52000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>1363.68</v>
       </c>
       <c r="H15">
@@ -15572,16 +21907,16 @@
       <c r="C16">
         <v>16</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <v>3.23908</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>8.6893799999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>293.89999999999998</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>2645.1</v>
       </c>
       <c r="H16">
@@ -15598,16 +21933,16 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>8.92</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>21.07</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>189.63</v>
       </c>
       <c r="H17">
@@ -15624,16 +21959,16 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>0.16145000000000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>8.7650000000000006</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>40.909999999999997</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>368.19</v>
       </c>
       <c r="H18">
@@ -15650,16 +21985,16 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>0.34806999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>8.7850000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>87.53</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>787.77</v>
       </c>
       <c r="H19">
@@ -15676,16 +22011,16 @@
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>0.67479</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>8.7375000000000007</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>167.99</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <v>1511.91</v>
       </c>
       <c r="H20">
@@ -15702,16 +22037,16 @@
       <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>1.35222</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>8.6893799999999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>339.82</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>3058.38</v>
       </c>
       <c r="H21">
@@ -15728,16 +22063,16 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>4.2441700000000004</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <v>18.84</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="11">
         <v>385.48</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <v>7324.12</v>
       </c>
       <c r="H22">
@@ -15754,16 +22089,16 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>9.7460299999999993</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <v>18.864999999999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="11">
         <v>726</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <v>13794</v>
       </c>
       <c r="H23">
@@ -15780,16 +22115,16 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>21.742999999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <v>18.809999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="11">
         <v>1323.88</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>25153.7</v>
       </c>
       <c r="H24">
@@ -15806,16 +22141,16 @@
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>66.634399999999999</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <v>18.787500000000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="11">
         <v>2803.56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>53267.6</v>
       </c>
       <c r="H25">
@@ -15832,16 +22167,16 @@
       <c r="C26">
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>206.03200000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <v>18.766200000000001</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="11">
         <v>5456.54</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <v>103674</v>
       </c>
       <c r="H26">
@@ -15858,16 +22193,16 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>4.1694000000000004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <v>18.84</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="11">
         <v>385.48</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>7324.12</v>
       </c>
       <c r="H27">
@@ -15884,16 +22219,16 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="10">
         <v>7.8148299999999997</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>18.864999999999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="11">
         <v>727.81</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>13828.4</v>
       </c>
       <c r="H28">
@@ -15910,16 +22245,16 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="10">
         <v>13.7342</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>18.809999999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="11">
         <v>1314.84</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>24982</v>
       </c>
       <c r="H29">
@@ -15936,16 +22271,16 @@
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="10">
         <v>30.1389</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>18.787500000000001</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="11">
         <v>2831.06</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <v>53790.1</v>
       </c>
       <c r="H30">
@@ -15962,16 +22297,16 @@
       <c r="C31">
         <v>16</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="10">
         <v>59.5107</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>18.766200000000001</v>
       </c>
       <c r="F31">
         <v>5571.76</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>105863</v>
       </c>
       <c r="H31">

--- a/nGoals.xlsx
+++ b/nGoals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="2550" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="2550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GridMaps(Temp)" sheetId="6" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="36">
   <si>
     <t>ost001</t>
   </si>
@@ -206,6 +206,12 @@
   <si>
     <t>\kastar{}-\fmax{}</t>
   </si>
+  <si>
+    <t>\astar{} per goal</t>
+  </si>
+  <si>
+    <t>\kastar{}-\minf{}</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -309,12 +315,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
@@ -361,141 +373,6 @@
       <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -503,78 +380,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -16175,63 +15980,63 @@
     <dataField name="Average of Denied" fld="6" subtotal="average" baseField="1" baseItem="4"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="81">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -20989,10 +20794,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E20"/>
+  <dimension ref="A3:J48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A15:E20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21215,6 +21020,458 @@
         <v>1973420</v>
       </c>
     </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>10</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.04192</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.52390599999999998</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1063.3139999999999</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1183.1759999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17">
+        <v>8.7120000000000003E-2</v>
+      </c>
+      <c r="C28" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>189.63</v>
+      </c>
+      <c r="E28" s="18">
+        <v>189.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>2</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.20094000000000001</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.16145000000000001</v>
+      </c>
+      <c r="D29" s="18">
+        <v>363.06</v>
+      </c>
+      <c r="E29" s="18">
+        <v>368.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>4</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.50541999999999998</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.34806999999999999</v>
+      </c>
+      <c r="D30" s="18">
+        <v>755.1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>787.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>8</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1.1770400000000001</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.67479</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1363.68</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1511.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>16</v>
+      </c>
+      <c r="B32" s="17">
+        <v>3.23908</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1.35222</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2645.1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>3058.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>20</v>
+      </c>
+      <c r="B33" s="22">
+        <v>61.679920000000003</v>
+      </c>
+      <c r="C33" s="22">
+        <v>23.073606000000002</v>
+      </c>
+      <c r="D33" s="23">
+        <v>40642.683999999994</v>
+      </c>
+      <c r="E33" s="23">
+        <v>41157.523999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17">
+        <v>4.2441700000000004</v>
+      </c>
+      <c r="C34" s="17">
+        <v>4.1694000000000004</v>
+      </c>
+      <c r="D34" s="18">
+        <v>7324.12</v>
+      </c>
+      <c r="E34" s="18">
+        <v>7324.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>2</v>
+      </c>
+      <c r="B35" s="17">
+        <v>9.7460299999999993</v>
+      </c>
+      <c r="C35" s="17">
+        <v>7.8148299999999997</v>
+      </c>
+      <c r="D35" s="18">
+        <v>13794</v>
+      </c>
+      <c r="E35" s="18">
+        <v>13828.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17">
+        <v>21.742999999999999</v>
+      </c>
+      <c r="C36" s="17">
+        <v>13.7342</v>
+      </c>
+      <c r="D36" s="18">
+        <v>25153.7</v>
+      </c>
+      <c r="E36" s="18">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
+        <v>8</v>
+      </c>
+      <c r="B37" s="17">
+        <v>66.634399999999999</v>
+      </c>
+      <c r="C37" s="17">
+        <v>30.1389</v>
+      </c>
+      <c r="D37" s="18">
+        <v>53267.6</v>
+      </c>
+      <c r="E37" s="18">
+        <v>53790.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
+        <v>16</v>
+      </c>
+      <c r="B38" s="17">
+        <v>206.03200000000001</v>
+      </c>
+      <c r="C38" s="17">
+        <v>59.5107</v>
+      </c>
+      <c r="D38" s="18">
+        <v>103674</v>
+      </c>
+      <c r="E38" s="18">
+        <v>105863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>1</v>
+      </c>
+      <c r="B44" s="17">
+        <v>8.7120000000000003E-2</v>
+      </c>
+      <c r="C44" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>189.63</v>
+      </c>
+      <c r="E44" s="18">
+        <v>189.63</v>
+      </c>
+      <c r="F44" s="19">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>4.2441700000000004</v>
+      </c>
+      <c r="H44" s="17">
+        <v>4.1694000000000004</v>
+      </c>
+      <c r="I44" s="18">
+        <v>7324.12</v>
+      </c>
+      <c r="J44" s="18">
+        <v>7324.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>2</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.20094000000000001</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.16145000000000001</v>
+      </c>
+      <c r="D45" s="18">
+        <v>363.06</v>
+      </c>
+      <c r="E45" s="18">
+        <v>368.19</v>
+      </c>
+      <c r="F45" s="19">
+        <v>2</v>
+      </c>
+      <c r="G45" s="17">
+        <v>9.7460299999999993</v>
+      </c>
+      <c r="H45" s="17">
+        <v>7.8148299999999997</v>
+      </c>
+      <c r="I45" s="18">
+        <v>13794</v>
+      </c>
+      <c r="J45" s="18">
+        <v>13828.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>4</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.50541999999999998</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.34806999999999999</v>
+      </c>
+      <c r="D46" s="18">
+        <v>755.1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>787.77</v>
+      </c>
+      <c r="F46" s="19">
+        <v>4</v>
+      </c>
+      <c r="G46" s="17">
+        <v>21.742999999999999</v>
+      </c>
+      <c r="H46" s="17">
+        <v>13.7342</v>
+      </c>
+      <c r="I46" s="18">
+        <v>25153.7</v>
+      </c>
+      <c r="J46" s="18">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>8</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1.1770400000000001</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.67479</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1363.68</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1511.91</v>
+      </c>
+      <c r="F47" s="19">
+        <v>8</v>
+      </c>
+      <c r="G47" s="17">
+        <v>66.634399999999999</v>
+      </c>
+      <c r="H47" s="17">
+        <v>30.1389</v>
+      </c>
+      <c r="I47" s="18">
+        <v>53267.6</v>
+      </c>
+      <c r="J47" s="18">
+        <v>53790.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>16</v>
+      </c>
+      <c r="B48" s="17">
+        <v>3.23908</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1.35222</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2645.1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>3058.38</v>
+      </c>
+      <c r="F48" s="19">
+        <v>16</v>
+      </c>
+      <c r="G48" s="17">
+        <v>206.03200000000001</v>
+      </c>
+      <c r="H48" s="17">
+        <v>59.5107</v>
+      </c>
+      <c r="I48" s="18">
+        <v>103674</v>
+      </c>
+      <c r="J48" s="18">
+        <v>105863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21224,17 +21481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" activeCellId="1" sqref="C5:C18 E5:E18"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisCol" dimension="1" start="3" min="2" max="4" activeRow="4" activeCol="4" previousRow="4" previousCol="4" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
